--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>44.24836572320267</v>
+        <v>2.066755654346222</v>
       </c>
       <c r="R2">
-        <v>398.235291508824</v>
+        <v>18.600800889116</v>
       </c>
       <c r="S2">
-        <v>0.006187370219277298</v>
+        <v>0.0003289686175623135</v>
       </c>
       <c r="T2">
-        <v>0.006187370219277296</v>
+        <v>0.0003289686175623134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>633.0249328346827</v>
+        <v>180.3489467654184</v>
       </c>
       <c r="R3">
-        <v>5697.224395512144</v>
+        <v>1623.140520888766</v>
       </c>
       <c r="S3">
-        <v>0.08851761084200863</v>
+        <v>0.02870641411889911</v>
       </c>
       <c r="T3">
-        <v>0.08851761084200861</v>
+        <v>0.02870641411889911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>96.83272190237068</v>
+        <v>27.58766440575878</v>
       </c>
       <c r="R4">
-        <v>871.4944971213361</v>
+        <v>248.288979651829</v>
       </c>
       <c r="S4">
-        <v>0.01354038482456576</v>
+        <v>0.004391170190946621</v>
       </c>
       <c r="T4">
-        <v>0.01354038482456575</v>
+        <v>0.00439117019094662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>334.6768207122301</v>
+        <v>54.86870871678622</v>
       </c>
       <c r="R5">
-        <v>3012.091386410071</v>
+        <v>493.818378451076</v>
       </c>
       <c r="S5">
-        <v>0.04679877685225792</v>
+        <v>0.008733535198528446</v>
       </c>
       <c r="T5">
-        <v>0.04679877685225792</v>
+        <v>0.008733535198528444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>4787.945689971358</v>
@@ -818,10 +818,10 @@
         <v>43091.51120974222</v>
       </c>
       <c r="S6">
-        <v>0.6695115647652365</v>
+        <v>0.7621045435540671</v>
       </c>
       <c r="T6">
-        <v>0.6695115647652364</v>
+        <v>0.762104543554067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>732.4037165558689</v>
@@ -880,10 +880,10 @@
         <v>6591.633449002819</v>
       </c>
       <c r="S7">
-        <v>0.1024140184668903</v>
+        <v>0.1165778052312143</v>
       </c>
       <c r="T7">
-        <v>0.1024140184668903</v>
+        <v>0.1165778052312142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>29.85319738807466</v>
+        <v>4.894292912981333</v>
       </c>
       <c r="R8">
-        <v>268.6787764926719</v>
+        <v>44.048636216832</v>
       </c>
       <c r="S8">
-        <v>0.004174454388319284</v>
+        <v>0.0007790319915867421</v>
       </c>
       <c r="T8">
-        <v>0.004174454388319283</v>
+        <v>0.0007790319915867419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
-        <v>427.0851129215146</v>
+        <v>427.0851129215147</v>
       </c>
       <c r="R9">
-        <v>3843.766016293631</v>
+        <v>3843.766016293632</v>
       </c>
       <c r="S9">
-        <v>0.0597204815499341</v>
+        <v>0.06797978216911128</v>
       </c>
       <c r="T9">
-        <v>0.05972048154993409</v>
+        <v>0.06797978216911127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
-        <v>65.33046618397867</v>
+        <v>65.33046618397869</v>
       </c>
       <c r="R10">
-        <v>587.974195655808</v>
+        <v>587.9741956558081</v>
       </c>
       <c r="S10">
-        <v>0.009135338091510304</v>
+        <v>0.0103987489280843</v>
       </c>
       <c r="T10">
-        <v>0.009135338091510303</v>
+        <v>0.0103987489280843</v>
       </c>
     </row>
   </sheetData>
